--- a/MainTop/30.10.2024/Таня_добавить.xlsx
+++ b/MainTop/30.10.2024/Таня_добавить.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Природа Силует</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лотос розовый золотистый</t>
   </si>
 </sst>
 </file>
@@ -264,10 +267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +385,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -390,23 +393,23 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2</v>
@@ -414,7 +417,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -422,7 +425,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -430,7 +433,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>2</v>
@@ -438,7 +441,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2</v>
@@ -446,7 +449,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>2</v>
@@ -454,7 +457,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>2</v>
@@ -462,7 +465,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -470,7 +473,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -478,7 +481,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -486,15 +489,15 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -502,15 +505,15 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2</v>
@@ -526,7 +529,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>
@@ -534,7 +537,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2</v>
@@ -542,7 +545,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2</v>
@@ -550,7 +553,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
@@ -574,7 +577,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
@@ -582,15 +585,15 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2</v>
@@ -606,15 +609,15 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2</v>
@@ -622,7 +625,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2</v>
@@ -630,7 +633,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2</v>
@@ -638,7 +641,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2</v>
@@ -646,7 +649,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -670,7 +673,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -678,15 +681,15 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>2</v>
@@ -694,7 +697,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>2</v>
@@ -702,7 +705,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>2</v>
@@ -710,15 +713,15 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>2</v>
@@ -726,7 +729,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>2</v>
@@ -734,7 +737,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>2</v>
@@ -750,7 +753,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>2</v>
@@ -758,9 +761,49 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C65" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="0" t="n">
         <v>2</v>
       </c>
     </row>
